--- a/biology/Médecine/Hôpital_Nord-Ouest/Hôpital_Nord-Ouest.xlsx
+++ b/biology/Médecine/Hôpital_Nord-Ouest/Hôpital_Nord-Ouest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Nord-Ouest</t>
+          <t>Hôpital_Nord-Ouest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital Nord-Ouest est une communauté hospitalière de territoire issue du rapprochement en 2009 des hôpitaux de Villefranche-sur-Saône et de Tarare, puis de ceux de Saint-Cyr-au-Mont-d'Or toujours en 2009, celui de Trévoux en 2012.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Nord-Ouest</t>
+          <t>Hôpital_Nord-Ouest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hôpital Nord-Ouest, communauté hospitalière de territoire au sens de la loi Hôpital, patients, santé et territoires (HPST) du 21 juillet 2009, a été fondé en 2009 par le rapprochement des hôpitaux de Villefranche-sur-Saône et de Tarare. L'hôpital de Saint-Cyr-au-Mont-d'Or puis en 2012 celui de Trévoux ont par la suite rejoint la communauté hospitalière de territoire[1].
-La communauté hospitalière de territoire regroupe l'hôpital de Villefranche-sur-Saône, l'hôpital de Tarare, l'hôpital gériatrique du Val d'Azergues, l'hôpital de Grandris, l'EHPAD de la Clairière et la résidence Pierre-de-Beaujeu. L'objectif de la communauté hospitalière de territoire est de proposer une qualité de soin identique sur l'ensemble de son territoire[2].
-La direction de la communauté est commune, sauf pour le centre hospitalier spécialisé de Saint-Cyr-au-Mont-d'Or, et est installée sur le site du centre hospitalier de Villefranche-sur-Saône[2]. L'Hôpital Nord-Ouest possède une capacité d'accueil totale de 2 641 lits et places, 551 pour le champ « médecine-chirurgie-obstétrique », 70 pour les soins de longue durée, 156 pour les soins de suite et de réadaptation et 488 pour l’hébergement des personnes âgées dépendantes[2].
-La loi de modernisation du système de santé du 26 janvier 2016 prévoit une nouvelle modalité de coopération obligatoire entre les établissements de santé à l'échelle d'un territoire : les Groupements hospitaliers de territoire (GHT)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hôpital Nord-Ouest, communauté hospitalière de territoire au sens de la loi Hôpital, patients, santé et territoires (HPST) du 21 juillet 2009, a été fondé en 2009 par le rapprochement des hôpitaux de Villefranche-sur-Saône et de Tarare. L'hôpital de Saint-Cyr-au-Mont-d'Or puis en 2012 celui de Trévoux ont par la suite rejoint la communauté hospitalière de territoire.
+La communauté hospitalière de territoire regroupe l'hôpital de Villefranche-sur-Saône, l'hôpital de Tarare, l'hôpital gériatrique du Val d'Azergues, l'hôpital de Grandris, l'EHPAD de la Clairière et la résidence Pierre-de-Beaujeu. L'objectif de la communauté hospitalière de territoire est de proposer une qualité de soin identique sur l'ensemble de son territoire.
+La direction de la communauté est commune, sauf pour le centre hospitalier spécialisé de Saint-Cyr-au-Mont-d'Or, et est installée sur le site du centre hospitalier de Villefranche-sur-Saône. L'Hôpital Nord-Ouest possède une capacité d'accueil totale de 2 641 lits et places, 551 pour le champ « médecine-chirurgie-obstétrique », 70 pour les soins de longue durée, 156 pour les soins de suite et de réadaptation et 488 pour l’hébergement des personnes âgées dépendantes.
+La loi de modernisation du système de santé du 26 janvier 2016 prévoit une nouvelle modalité de coopération obligatoire entre les établissements de santé à l'échelle d'un territoire : les Groupements hospitaliers de territoire (GHT).
 A ce titre, depuis le 1er juillet 2016, l'Hôpital de Beaujeu (Rhône) et le Centre Hospitalier de Belleville (Rhône) font partie du GHT Rhône Nord Beaujolais Dombes, dont l'établissement support est l'Hôpital Nord-Ouest Villefranche-sur-Saône. Les autres établissements membres du GHT sont l'établissement de santé de proximité de Grandris, le Centre Hospitalier de Tarare (Rhône), le Centre Hospitalier de Trévoux, et le Centre Hospitalier Spécialisé de Saint-Cyr-au-Mont-d'Or. Les Hospices civils de Lyon sont associés au GHT. Les autres partenaires du GHT sont le Centre de lutte contre le cancer Léon Bérard, l'Hôpital de L'Arbresle, et le Centre Médical de Bayère.
 Le GHT a pour objet notamment de renforcer la qualité de l'offre de soins au service des besoins de la population.
-Le 15 février 2021, l’Hôpital Nord-Ouest est victime d'une cyberattaque de type rançongiciel[4] par le cryptovirus Ryuk[5],[6]. Les centres hospitaliers de Villefranche, Tarare et Trévoux sont touchés par l'attaque[5]. 
+Le 15 février 2021, l’Hôpital Nord-Ouest est victime d'une cyberattaque de type rançongiciel par le cryptovirus Ryuk,. Les centres hospitaliers de Villefranche, Tarare et Trévoux sont touchés par l'attaque. 
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Nord-Ouest</t>
+          <t>Hôpital_Nord-Ouest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Chiffres Clés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hôpital Nord-Ouest comptabilisait en 2018, 8 établissements parties au GHT, 2 641 lits et places, 3 426 salariés pour un budget de 320 millions d'euros, cette même année, 9 763 interventions ont été effectuées au bloc opératoire, 87 086 passages aux urgences, dont 26 843 aux urgences pédiatriques ainsi que 1 712 accouchements[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hôpital Nord-Ouest comptabilisait en 2018, 8 établissements parties au GHT, 2 641 lits et places, 3 426 salariés pour un budget de 320 millions d'euros, cette même année, 9 763 interventions ont été effectuées au bloc opératoire, 87 086 passages aux urgences, dont 26 843 aux urgences pédiatriques ainsi que 1 712 accouchements.
 A Villefranche, 24 262 226 actes de biologie ont été effectués, et 536 000 repas ont été servis.
 </t>
         </is>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Nord-Ouest</t>
+          <t>Hôpital_Nord-Ouest</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,44 +597,84 @@
           <t>Centre hospitalier de Tarare</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le centre hospitalier de Tarare est un centre hospitalier de proximité qui dessert un bassin de population d'environ 50 000 personnes. Près de 55 % des foyers de ce bassin vivent sous le seuil de pauvreté et le taux de chômage est de plus de 15 %[8]. La zone de soin de proximité desservie par le centre hospitalier est la zone la plus en difficulté parmi les dix zones critiques de la région Rhône-Alpes[8]. Près de 20 % des ménages ne disposent pas de véhicule pour se déplacer[8].
-La capacité d'accueil de l'hôpital de Tarare est de 290 lits et places dont 60 pour le champ « médecine-chirurgie-obstétrique », 30 pour les soins de suite et de réadaptation et 200 pour l’hébergement des personnes âgées dépendantes au sein de l'EHPAD de la Clairière[2].
-En 2012, l'hôpital de Tarare emploie 362,4 équivalents temps plein et le budget principal enregistrait un peu plus de 21 millions d'euros de produits[9]. La même année, après rénovation du service des urgences, le site a vu l'installation d'un scanner[9].
-Identité visuelle (logo)
+Le centre hospitalier de Tarare est un centre hospitalier de proximité qui dessert un bassin de population d'environ 50 000 personnes. Près de 55 % des foyers de ce bassin vivent sous le seuil de pauvreté et le taux de chômage est de plus de 15 %. La zone de soin de proximité desservie par le centre hospitalier est la zone la plus en difficulté parmi les dix zones critiques de la région Rhône-Alpes. Près de 20 % des ménages ne disposent pas de véhicule pour se déplacer.
+La capacité d'accueil de l'hôpital de Tarare est de 290 lits et places dont 60 pour le champ « médecine-chirurgie-obstétrique », 30 pour les soins de suite et de réadaptation et 200 pour l’hébergement des personnes âgées dépendantes au sein de l'EHPAD de la Clairière.
+En 2012, l'hôpital de Tarare emploie 362,4 équivalents temps plein et le budget principal enregistrait un peu plus de 21 millions d'euros de produits. La même année, après rénovation du service des urgences, le site a vu l'installation d'un scanner.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_Nord-Ouest</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Nord-Ouest</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Centre hospitalier de Tarare</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Identité visuelle (logo)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Ancien logo du centre hospitalier de Tarare avant la création de l'Hôpital Nord-Ouest.
 			L'Hôpital Nord-Ouest (Centre hospitalier de Tarare).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>H%C3%B4pital_Nord-Ouest</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hôpital_Nord-Ouest</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Nord-Ouest</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Centre hospitalier de Villefranche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre hospitalier de Villefranche est un établissement de santé français construit sur la commune de Gleizé dans le Rhône.
@@ -634,34 +690,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>H%C3%B4pital_Nord-Ouest</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hôpital_Nord-Ouest</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Nord-Ouest</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Centre hospitalier de Saint-Cyr-au-Mont-d'Or</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le centre hospitalier de Saint-Cyr-au-Mont-d'Or est un centre hospitalier spécialisé public[10] situé dans le quartier de La Chaux.
+Le centre hospitalier de Saint-Cyr-au-Mont-d'Or est un centre hospitalier spécialisé public situé dans le quartier de La Chaux.
 le CH de Saint-Cyr au Mont d’or a été créé en 1972 et sa capacité est de 350 lits et places.
 Organisé en secteurs géographiques, il dispose de deux pôles de psychiatrie adultes répartis sur le territoire métropolitain, d’une part, et le territoire de Département du Rhône, d’autre part. Un pôle d’activité à vocation transversale rassemble notamment l’unité d’hospitalisation de courte durée (UHCD), le service de régulation, la médecine générale, la pharmacie, l’unité de réhabilitation psychosociale et le département d’information médicale. Un pôle unique de Pédopsychiatrie complètent le dispositif depuis le 1er janvier 2018.
 La prise en charge des patients est assurée par des équipes pluridisciplinaires: Psychiatre, Psychologue, Infirmier de secteur psychiatrique, Assistants sociaux, Éducateurs spécialisés, Aides-soignants, Rééducateurs, Psychomotriciens et Orthophonistes dans les unités pour enfants. Des prestations de nature différente peuvent être proposées : Art-thérapie, Musicothérapie, Sport, Soins esthétiques, Diététique, en fonction de l’indication médicale.
@@ -675,31 +733,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>H%C3%B4pital_Nord-Ouest</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hôpital_Nord-Ouest</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Nord-Ouest</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Centre hospitalier de Trévoux</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier de Trévoux est un établissement hospitalier orienté sur la gériatrie. Il gère également la maison de retraite de Reyrieux.
@@ -726,31 +786,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>H%C3%B4pital_Nord-Ouest</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hôpital_Nord-Ouest</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Nord-Ouest</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Centre hospitalier de Grandris</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Hôpital de Grandris a été fondé, par décret du Président de la République Jules Grévy, en 1882 à la suite d'un legs privé à la commune en 1872.
